--- a/bikes.xlsx
+++ b/bikes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexey\Desktop\Phangan_Essencial_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexey\Desktop\Phangan_Essencials_bot_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3FD68AD-16D4-4398-B114-10DADF1714C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{845AB29E-872D-4C30-8733-0F91ECB0583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12150" yWindow="5955" windowWidth="25845" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48825" yWindow="5805" windowWidth="25845" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bikes" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="93">
   <si>
     <t>model</t>
   </si>
@@ -150,33 +150,6 @@
     <t>Honda Click 4.jpg</t>
   </si>
   <si>
-    <t>Honda Click 5</t>
-  </si>
-  <si>
-    <t>Описание Honda Click 5</t>
-  </si>
-  <si>
-    <t>Honda Click 5.jpg</t>
-  </si>
-  <si>
-    <t>Honda Click 6</t>
-  </si>
-  <si>
-    <t>Описание Honda Click 6</t>
-  </si>
-  <si>
-    <t>Honda Click 6.jpg</t>
-  </si>
-  <si>
-    <t>Honda Click 7</t>
-  </si>
-  <si>
-    <t>Описание Honda Click 7</t>
-  </si>
-  <si>
-    <t>Honda Click 7.jpg</t>
-  </si>
-  <si>
     <t>Honda ADV</t>
   </si>
   <si>
@@ -313,6 +286,21 @@
   </si>
   <si>
     <t>username</t>
+  </si>
+  <si>
+    <t>26-08-2024</t>
+  </si>
+  <si>
+    <t>31-08-2024</t>
+  </si>
+  <si>
+    <t>Smileftw1337</t>
+  </si>
+  <si>
+    <t>02-09-2024</t>
+  </si>
+  <si>
+    <t>08-09-2024</t>
   </si>
 </sst>
 </file>
@@ -674,7 +662,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -868,213 +856,189 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1085,35 +1049,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>519275422</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>519275422</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>96</v>
+      <c r="E3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1126,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
